--- a/PRD-Online Learing Platfrom.xlsx
+++ b/PRD-Online Learing Platfrom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6994CF-661A-4559-A6CF-401C0FE185BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44695EB-F347-4010-BF4A-3B8FE8C44F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>Product Requirement Document (PRD) - Version: 1.0</t>
   </si>
@@ -287,6 +287,51 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Manager can create, edit, assign instructors to, and delete courses so that efficiently manage and organize the learning content available on the platform.</t>
+  </si>
+  <si>
+    <t>✅ Manager can create a new course by entering the course title, description, category, and uploading relevant materials.
+✅ Manager can edit existing course details such as name, instructor, duration, or content.
+✅ Manager can assign or reassign instructors to any course from a dropdown or search list.
+✅ Manager can deactivate or delete a course, with a confirmation prompt to prevent accidental deletion.
+✅ Course list is filterable by status (active/inactive), instructor, and category.
+✅ Changes made by the Manager are immediately reflected in the Instructor and Student dashboards.
+✅ System provides success or error messages for all actions (e.g., "Course created successfully").</t>
+  </si>
+  <si>
+    <t>Manager can create, edit, schedule, and delete platform events, so that efficiently organize webinars, meetings, and other important academic activities for instructors and learners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manager can monitor, record, and manage all financial activities on the platform such as payments, instructor salaries, and refunds, so that he can maintain accurate records and ensure transparency.</t>
+  </si>
+  <si>
+    <t>Monitor Finance</t>
+  </si>
+  <si>
+    <t>As a Manager, I want to post notices and news updates on the platform, so that I can keep all users informed about important announcements, events, or changes.</t>
+  </si>
+  <si>
+    <t>Post Notice &amp; News</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manager can access detailed analytics and reports about platform usage, course progress, user engagement, and financial performance, so that he can make informed decisions to improve the learning experience and manage resources efficiently.</t>
+  </si>
+  <si>
+    <t>Review Analytics</t>
+  </si>
+  <si>
+    <t>Manager can  view and update profile information, so that  account details are accurate and up to date on the platform.</t>
+  </si>
+  <si>
+    <t>View and Update Profile</t>
+  </si>
+  <si>
+    <t>Manager can access and customize  settings, so that he can personalize  preferences and control  platform experience.</t>
+  </si>
+  <si>
+    <t>Change Settings</t>
   </si>
 </sst>
 </file>
@@ -803,6 +848,16 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -811,24 +866,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -839,9 +887,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1110,7 @@
   <dimension ref="A1:X954"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:G36"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1082,13 +1127,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="72"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
@@ -1136,11 +1181,11 @@
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="72"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="72"/>
@@ -1166,11 +1211,11 @@
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="152.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="72"/>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="77" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="72"/>
@@ -1196,11 +1241,11 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="71" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="72"/>
-      <c r="C5" s="74"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="72"/>
       <c r="E5" s="37"/>
       <c r="F5" s="8"/>
@@ -1224,11 +1269,11 @@
       <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="72"/>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="72"/>
@@ -1254,11 +1299,11 @@
       <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="71" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="72"/>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="72"/>
@@ -1284,11 +1329,11 @@
       <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="71" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="72"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="72"/>
@@ -1314,11 +1359,11 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="71" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="72"/>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="72"/>
@@ -1436,17 +1481,17 @@
       <c r="X12" s="20"/>
     </row>
     <row r="13" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="77" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -1579,17 +1624,17 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69" t="s">
+      <c r="B17" s="65"/>
+      <c r="C17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -1647,17 +1692,17 @@
       <c r="X18" s="20"/>
     </row>
     <row r="19" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -1749,17 +1794,17 @@
       <c r="X21" s="20"/>
     </row>
     <row r="22" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="27"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
@@ -1788,8 +1833,12 @@
       <c r="C23" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="46"/>
+      <c r="D23" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>67</v>
+      </c>
       <c r="F23" s="41"/>
       <c r="G23" s="47"/>
       <c r="H23" s="27"/>
@@ -1811,17 +1860,17 @@
       <c r="X23" s="20"/>
     </row>
     <row r="24" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="27"/>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
@@ -1847,8 +1896,12 @@
       <c r="B25" s="49">
         <v>10</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
+      <c r="C25" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
@@ -1871,17 +1924,17 @@
       <c r="X25" s="20"/>
     </row>
     <row r="26" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="27"/>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
@@ -1907,8 +1960,12 @@
       <c r="B27" s="49">
         <v>11</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
+      <c r="C27" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>69</v>
+      </c>
       <c r="E27" s="46"/>
       <c r="F27" s="41"/>
       <c r="G27" s="47"/>
@@ -1931,17 +1988,17 @@
       <c r="X27" s="20"/>
     </row>
     <row r="28" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69" t="s">
+      <c r="B28" s="65"/>
+      <c r="C28" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="27"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
@@ -1967,8 +2024,12 @@
       <c r="B29" s="49">
         <v>12</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
+      <c r="C29" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="E29" s="46"/>
       <c r="F29" s="41"/>
       <c r="G29" s="47"/>
@@ -1991,17 +2052,17 @@
       <c r="X29" s="20"/>
     </row>
     <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
@@ -2027,8 +2088,12 @@
       <c r="B31" s="49">
         <v>13</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>73</v>
+      </c>
       <c r="E31" s="46"/>
       <c r="F31" s="41"/>
       <c r="G31" s="47"/>
@@ -2051,17 +2116,17 @@
       <c r="X31" s="20"/>
     </row>
     <row r="32" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="69" t="s">
+      <c r="B32" s="65"/>
+      <c r="C32" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="27"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
@@ -2087,8 +2152,12 @@
       <c r="B33" s="49">
         <v>14</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>75</v>
+      </c>
       <c r="E33" s="46"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
@@ -2111,17 +2180,17 @@
       <c r="X33" s="20"/>
     </row>
     <row r="34" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69" t="s">
+      <c r="B34" s="65"/>
+      <c r="C34" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="27"/>
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
@@ -2147,8 +2216,12 @@
       <c r="B35" s="49">
         <v>19</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
+      <c r="C35" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="E35" s="46"/>
       <c r="F35" s="41"/>
       <c r="G35" s="47"/>
@@ -2173,7 +2246,7 @@
     <row r="36" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="63" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="38"/>
@@ -3475,22 +3548,22 @@
     <row r="88" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="64"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="64"/>
-      <c r="N88" s="65"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="64"/>
-      <c r="Q88" s="64"/>
-      <c r="R88" s="65"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="67"/>
+      <c r="M88" s="68"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="67"/>
+      <c r="P88" s="68"/>
+      <c r="Q88" s="68"/>
+      <c r="R88" s="69"/>
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
@@ -3501,22 +3574,22 @@
     <row r="89" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="64"/>
-      <c r="J89" s="64"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="63"/>
-      <c r="M89" s="64"/>
-      <c r="N89" s="65"/>
-      <c r="O89" s="63"/>
-      <c r="P89" s="64"/>
-      <c r="Q89" s="64"/>
-      <c r="R89" s="65"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="68"/>
+      <c r="N89" s="69"/>
+      <c r="O89" s="67"/>
+      <c r="P89" s="68"/>
+      <c r="Q89" s="68"/>
+      <c r="R89" s="69"/>
       <c r="S89" s="11"/>
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
@@ -3527,22 +3600,22 @@
     <row r="90" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="64"/>
-      <c r="J90" s="64"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="63"/>
-      <c r="M90" s="64"/>
-      <c r="N90" s="65"/>
-      <c r="O90" s="63"/>
-      <c r="P90" s="64"/>
-      <c r="Q90" s="64"/>
-      <c r="R90" s="65"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="68"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="68"/>
+      <c r="N90" s="69"/>
+      <c r="O90" s="67"/>
+      <c r="P90" s="68"/>
+      <c r="Q90" s="68"/>
+      <c r="R90" s="69"/>
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
@@ -3553,22 +3626,22 @@
     <row r="91" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="63"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="65"/>
-      <c r="L91" s="63"/>
-      <c r="M91" s="64"/>
-      <c r="N91" s="65"/>
-      <c r="O91" s="63"/>
-      <c r="P91" s="64"/>
-      <c r="Q91" s="64"/>
-      <c r="R91" s="65"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="68"/>
+      <c r="K91" s="69"/>
+      <c r="L91" s="67"/>
+      <c r="M91" s="68"/>
+      <c r="N91" s="69"/>
+      <c r="O91" s="67"/>
+      <c r="P91" s="68"/>
+      <c r="Q91" s="68"/>
+      <c r="R91" s="69"/>
       <c r="S91" s="11"/>
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
@@ -3579,22 +3652,22 @@
     <row r="92" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="63"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="65"/>
-      <c r="L92" s="63"/>
-      <c r="M92" s="64"/>
-      <c r="N92" s="65"/>
-      <c r="O92" s="63"/>
-      <c r="P92" s="64"/>
-      <c r="Q92" s="64"/>
-      <c r="R92" s="65"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="68"/>
+      <c r="N92" s="69"/>
+      <c r="O92" s="67"/>
+      <c r="P92" s="68"/>
+      <c r="Q92" s="68"/>
+      <c r="R92" s="69"/>
       <c r="S92" s="11"/>
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
@@ -3605,22 +3678,22 @@
     <row r="93" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="63"/>
-      <c r="I93" s="64"/>
-      <c r="J93" s="64"/>
-      <c r="K93" s="65"/>
-      <c r="L93" s="63"/>
-      <c r="M93" s="64"/>
-      <c r="N93" s="65"/>
-      <c r="O93" s="63"/>
-      <c r="P93" s="64"/>
-      <c r="Q93" s="64"/>
-      <c r="R93" s="65"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="67"/>
+      <c r="M93" s="68"/>
+      <c r="N93" s="69"/>
+      <c r="O93" s="67"/>
+      <c r="P93" s="68"/>
+      <c r="Q93" s="68"/>
+      <c r="R93" s="69"/>
       <c r="S93" s="11"/>
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
@@ -3631,22 +3704,22 @@
     <row r="94" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="63"/>
-      <c r="I94" s="64"/>
-      <c r="J94" s="64"/>
-      <c r="K94" s="65"/>
-      <c r="L94" s="63"/>
-      <c r="M94" s="64"/>
-      <c r="N94" s="65"/>
-      <c r="O94" s="63"/>
-      <c r="P94" s="64"/>
-      <c r="Q94" s="64"/>
-      <c r="R94" s="65"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="69"/>
+      <c r="L94" s="67"/>
+      <c r="M94" s="68"/>
+      <c r="N94" s="69"/>
+      <c r="O94" s="67"/>
+      <c r="P94" s="68"/>
+      <c r="Q94" s="68"/>
+      <c r="R94" s="69"/>
       <c r="S94" s="11"/>
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
@@ -3657,22 +3730,22 @@
     <row r="95" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="65"/>
-      <c r="L95" s="63"/>
-      <c r="M95" s="64"/>
-      <c r="N95" s="65"/>
-      <c r="O95" s="63"/>
-      <c r="P95" s="64"/>
-      <c r="Q95" s="64"/>
-      <c r="R95" s="65"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="68"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="68"/>
+      <c r="N95" s="69"/>
+      <c r="O95" s="67"/>
+      <c r="P95" s="68"/>
+      <c r="Q95" s="68"/>
+      <c r="R95" s="69"/>
       <c r="S95" s="11"/>
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
@@ -3683,22 +3756,22 @@
     <row r="96" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="63"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="65"/>
-      <c r="L96" s="63"/>
-      <c r="M96" s="64"/>
-      <c r="N96" s="65"/>
-      <c r="O96" s="63"/>
-      <c r="P96" s="64"/>
-      <c r="Q96" s="64"/>
-      <c r="R96" s="65"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="68"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="67"/>
+      <c r="M96" s="68"/>
+      <c r="N96" s="69"/>
+      <c r="O96" s="67"/>
+      <c r="P96" s="68"/>
+      <c r="Q96" s="68"/>
+      <c r="R96" s="69"/>
       <c r="S96" s="11"/>
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
@@ -3709,22 +3782,22 @@
     <row r="97" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="65"/>
-      <c r="L97" s="63"/>
-      <c r="M97" s="64"/>
-      <c r="N97" s="65"/>
-      <c r="O97" s="63"/>
-      <c r="P97" s="64"/>
-      <c r="Q97" s="64"/>
-      <c r="R97" s="65"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="68"/>
+      <c r="K97" s="69"/>
+      <c r="L97" s="67"/>
+      <c r="M97" s="68"/>
+      <c r="N97" s="69"/>
+      <c r="O97" s="67"/>
+      <c r="P97" s="68"/>
+      <c r="Q97" s="68"/>
+      <c r="R97" s="69"/>
       <c r="S97" s="11"/>
       <c r="T97" s="11"/>
       <c r="U97" s="11"/>
@@ -3735,22 +3808,22 @@
     <row r="98" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="63"/>
-      <c r="I98" s="64"/>
-      <c r="J98" s="64"/>
-      <c r="K98" s="65"/>
-      <c r="L98" s="63"/>
-      <c r="M98" s="64"/>
-      <c r="N98" s="65"/>
-      <c r="O98" s="63"/>
-      <c r="P98" s="64"/>
-      <c r="Q98" s="64"/>
-      <c r="R98" s="65"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="68"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="68"/>
+      <c r="N98" s="69"/>
+      <c r="O98" s="67"/>
+      <c r="P98" s="68"/>
+      <c r="Q98" s="68"/>
+      <c r="R98" s="69"/>
       <c r="S98" s="11"/>
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
@@ -3761,22 +3834,22 @@
     <row r="99" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64"/>
-      <c r="J99" s="64"/>
-      <c r="K99" s="65"/>
-      <c r="L99" s="63"/>
-      <c r="M99" s="64"/>
-      <c r="N99" s="65"/>
-      <c r="O99" s="63"/>
-      <c r="P99" s="64"/>
-      <c r="Q99" s="64"/>
-      <c r="R99" s="65"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="68"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="67"/>
+      <c r="M99" s="68"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="67"/>
+      <c r="P99" s="68"/>
+      <c r="Q99" s="68"/>
+      <c r="R99" s="69"/>
       <c r="S99" s="11"/>
       <c r="T99" s="11"/>
       <c r="U99" s="11"/>
@@ -3787,22 +3860,22 @@
     <row r="100" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="63"/>
-      <c r="I100" s="64"/>
-      <c r="J100" s="64"/>
-      <c r="K100" s="65"/>
-      <c r="L100" s="63"/>
-      <c r="M100" s="64"/>
-      <c r="N100" s="65"/>
-      <c r="O100" s="63"/>
-      <c r="P100" s="64"/>
-      <c r="Q100" s="64"/>
-      <c r="R100" s="65"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="68"/>
+      <c r="J100" s="68"/>
+      <c r="K100" s="69"/>
+      <c r="L100" s="67"/>
+      <c r="M100" s="68"/>
+      <c r="N100" s="69"/>
+      <c r="O100" s="67"/>
+      <c r="P100" s="68"/>
+      <c r="Q100" s="68"/>
+      <c r="R100" s="69"/>
       <c r="S100" s="11"/>
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
@@ -3813,22 +3886,22 @@
     <row r="101" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="65"/>
-      <c r="L101" s="63"/>
-      <c r="M101" s="64"/>
-      <c r="N101" s="65"/>
-      <c r="O101" s="63"/>
-      <c r="P101" s="64"/>
-      <c r="Q101" s="64"/>
-      <c r="R101" s="65"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="68"/>
+      <c r="K101" s="69"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="68"/>
+      <c r="N101" s="69"/>
+      <c r="O101" s="67"/>
+      <c r="P101" s="68"/>
+      <c r="Q101" s="68"/>
+      <c r="R101" s="69"/>
       <c r="S101" s="11"/>
       <c r="T101" s="11"/>
       <c r="U101" s="11"/>
@@ -3839,22 +3912,22 @@
     <row r="102" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="64"/>
-      <c r="J102" s="64"/>
-      <c r="K102" s="65"/>
-      <c r="L102" s="63"/>
-      <c r="M102" s="64"/>
-      <c r="N102" s="65"/>
-      <c r="O102" s="63"/>
-      <c r="P102" s="64"/>
-      <c r="Q102" s="64"/>
-      <c r="R102" s="65"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="68"/>
+      <c r="J102" s="68"/>
+      <c r="K102" s="69"/>
+      <c r="L102" s="67"/>
+      <c r="M102" s="68"/>
+      <c r="N102" s="69"/>
+      <c r="O102" s="67"/>
+      <c r="P102" s="68"/>
+      <c r="Q102" s="68"/>
+      <c r="R102" s="69"/>
       <c r="S102" s="11"/>
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
@@ -3865,22 +3938,22 @@
     <row r="103" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="63"/>
-      <c r="M103" s="64"/>
-      <c r="N103" s="65"/>
-      <c r="O103" s="63"/>
-      <c r="P103" s="64"/>
-      <c r="Q103" s="64"/>
-      <c r="R103" s="65"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="68"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="67"/>
+      <c r="M103" s="68"/>
+      <c r="N103" s="69"/>
+      <c r="O103" s="67"/>
+      <c r="P103" s="68"/>
+      <c r="Q103" s="68"/>
+      <c r="R103" s="69"/>
       <c r="S103" s="11"/>
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
@@ -3891,22 +3964,22 @@
     <row r="104" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="63"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="63"/>
-      <c r="I104" s="64"/>
-      <c r="J104" s="64"/>
-      <c r="K104" s="65"/>
-      <c r="L104" s="63"/>
-      <c r="M104" s="64"/>
-      <c r="N104" s="65"/>
-      <c r="O104" s="63"/>
-      <c r="P104" s="64"/>
-      <c r="Q104" s="64"/>
-      <c r="R104" s="65"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="68"/>
+      <c r="J104" s="68"/>
+      <c r="K104" s="69"/>
+      <c r="L104" s="67"/>
+      <c r="M104" s="68"/>
+      <c r="N104" s="69"/>
+      <c r="O104" s="67"/>
+      <c r="P104" s="68"/>
+      <c r="Q104" s="68"/>
+      <c r="R104" s="69"/>
       <c r="S104" s="11"/>
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
@@ -3917,22 +3990,22 @@
     <row r="105" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="65"/>
-      <c r="L105" s="63"/>
-      <c r="M105" s="64"/>
-      <c r="N105" s="65"/>
-      <c r="O105" s="63"/>
-      <c r="P105" s="64"/>
-      <c r="Q105" s="64"/>
-      <c r="R105" s="65"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="68"/>
+      <c r="J105" s="68"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="67"/>
+      <c r="M105" s="68"/>
+      <c r="N105" s="69"/>
+      <c r="O105" s="67"/>
+      <c r="P105" s="68"/>
+      <c r="Q105" s="68"/>
+      <c r="R105" s="69"/>
       <c r="S105" s="11"/>
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
@@ -3943,22 +4016,22 @@
     <row r="106" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="65"/>
-      <c r="H106" s="63"/>
-      <c r="I106" s="64"/>
-      <c r="J106" s="64"/>
-      <c r="K106" s="65"/>
-      <c r="L106" s="63"/>
-      <c r="M106" s="64"/>
-      <c r="N106" s="65"/>
-      <c r="O106" s="63"/>
-      <c r="P106" s="64"/>
-      <c r="Q106" s="64"/>
-      <c r="R106" s="65"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="69"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="68"/>
+      <c r="J106" s="68"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="67"/>
+      <c r="M106" s="68"/>
+      <c r="N106" s="69"/>
+      <c r="O106" s="67"/>
+      <c r="P106" s="68"/>
+      <c r="Q106" s="68"/>
+      <c r="R106" s="69"/>
       <c r="S106" s="11"/>
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
@@ -3969,22 +4042,22 @@
     <row r="107" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="65"/>
-      <c r="L107" s="63"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="65"/>
-      <c r="O107" s="63"/>
-      <c r="P107" s="64"/>
-      <c r="Q107" s="64"/>
-      <c r="R107" s="65"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="69"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="68"/>
+      <c r="J107" s="68"/>
+      <c r="K107" s="69"/>
+      <c r="L107" s="67"/>
+      <c r="M107" s="68"/>
+      <c r="N107" s="69"/>
+      <c r="O107" s="67"/>
+      <c r="P107" s="68"/>
+      <c r="Q107" s="68"/>
+      <c r="R107" s="69"/>
       <c r="S107" s="11"/>
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
@@ -3995,22 +4068,22 @@
     <row r="108" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="63"/>
-      <c r="I108" s="64"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="65"/>
-      <c r="L108" s="63"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="65"/>
-      <c r="O108" s="63"/>
-      <c r="P108" s="64"/>
-      <c r="Q108" s="64"/>
-      <c r="R108" s="65"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="68"/>
+      <c r="J108" s="68"/>
+      <c r="K108" s="69"/>
+      <c r="L108" s="67"/>
+      <c r="M108" s="68"/>
+      <c r="N108" s="69"/>
+      <c r="O108" s="67"/>
+      <c r="P108" s="68"/>
+      <c r="Q108" s="68"/>
+      <c r="R108" s="69"/>
       <c r="S108" s="11"/>
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
@@ -4021,22 +4094,22 @@
     <row r="109" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64"/>
-      <c r="J109" s="64"/>
-      <c r="K109" s="65"/>
-      <c r="L109" s="63"/>
-      <c r="M109" s="64"/>
-      <c r="N109" s="65"/>
-      <c r="O109" s="63"/>
-      <c r="P109" s="64"/>
-      <c r="Q109" s="64"/>
-      <c r="R109" s="65"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="69"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="68"/>
+      <c r="J109" s="68"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="67"/>
+      <c r="M109" s="68"/>
+      <c r="N109" s="69"/>
+      <c r="O109" s="67"/>
+      <c r="P109" s="68"/>
+      <c r="Q109" s="68"/>
+      <c r="R109" s="69"/>
       <c r="S109" s="11"/>
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
@@ -4047,22 +4120,22 @@
     <row r="110" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="63"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="63"/>
-      <c r="I110" s="64"/>
-      <c r="J110" s="64"/>
-      <c r="K110" s="65"/>
-      <c r="L110" s="63"/>
-      <c r="M110" s="64"/>
-      <c r="N110" s="65"/>
-      <c r="O110" s="63"/>
-      <c r="P110" s="64"/>
-      <c r="Q110" s="64"/>
-      <c r="R110" s="65"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="69"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="68"/>
+      <c r="J110" s="68"/>
+      <c r="K110" s="69"/>
+      <c r="L110" s="67"/>
+      <c r="M110" s="68"/>
+      <c r="N110" s="69"/>
+      <c r="O110" s="67"/>
+      <c r="P110" s="68"/>
+      <c r="Q110" s="68"/>
+      <c r="R110" s="69"/>
       <c r="S110" s="11"/>
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
@@ -4073,22 +4146,22 @@
     <row r="111" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64"/>
-      <c r="J111" s="64"/>
-      <c r="K111" s="65"/>
-      <c r="L111" s="63"/>
-      <c r="M111" s="64"/>
-      <c r="N111" s="65"/>
-      <c r="O111" s="63"/>
-      <c r="P111" s="64"/>
-      <c r="Q111" s="64"/>
-      <c r="R111" s="65"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="68"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="67"/>
+      <c r="M111" s="68"/>
+      <c r="N111" s="69"/>
+      <c r="O111" s="67"/>
+      <c r="P111" s="68"/>
+      <c r="Q111" s="68"/>
+      <c r="R111" s="69"/>
       <c r="S111" s="11"/>
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
@@ -4099,22 +4172,22 @@
     <row r="112" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="63"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="63"/>
-      <c r="I112" s="64"/>
-      <c r="J112" s="64"/>
-      <c r="K112" s="65"/>
-      <c r="L112" s="63"/>
-      <c r="M112" s="64"/>
-      <c r="N112" s="65"/>
-      <c r="O112" s="63"/>
-      <c r="P112" s="64"/>
-      <c r="Q112" s="64"/>
-      <c r="R112" s="65"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="69"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="68"/>
+      <c r="J112" s="68"/>
+      <c r="K112" s="69"/>
+      <c r="L112" s="67"/>
+      <c r="M112" s="68"/>
+      <c r="N112" s="69"/>
+      <c r="O112" s="67"/>
+      <c r="P112" s="68"/>
+      <c r="Q112" s="68"/>
+      <c r="R112" s="69"/>
       <c r="S112" s="11"/>
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
@@ -4125,22 +4198,22 @@
     <row r="113" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64"/>
-      <c r="J113" s="64"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="63"/>
-      <c r="M113" s="64"/>
-      <c r="N113" s="65"/>
-      <c r="O113" s="63"/>
-      <c r="P113" s="64"/>
-      <c r="Q113" s="64"/>
-      <c r="R113" s="65"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="68"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="67"/>
+      <c r="M113" s="68"/>
+      <c r="N113" s="69"/>
+      <c r="O113" s="67"/>
+      <c r="P113" s="68"/>
+      <c r="Q113" s="68"/>
+      <c r="R113" s="69"/>
       <c r="S113" s="11"/>
       <c r="T113" s="11"/>
       <c r="U113" s="11"/>
@@ -4151,22 +4224,22 @@
     <row r="114" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="63"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="63"/>
-      <c r="I114" s="64"/>
-      <c r="J114" s="64"/>
-      <c r="K114" s="65"/>
-      <c r="L114" s="63"/>
-      <c r="M114" s="64"/>
-      <c r="N114" s="65"/>
-      <c r="O114" s="63"/>
-      <c r="P114" s="64"/>
-      <c r="Q114" s="64"/>
-      <c r="R114" s="65"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="69"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="68"/>
+      <c r="J114" s="68"/>
+      <c r="K114" s="69"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="68"/>
+      <c r="N114" s="69"/>
+      <c r="O114" s="67"/>
+      <c r="P114" s="68"/>
+      <c r="Q114" s="68"/>
+      <c r="R114" s="69"/>
       <c r="S114" s="11"/>
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
@@ -4177,22 +4250,22 @@
     <row r="115" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="63"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="64"/>
-      <c r="J115" s="64"/>
-      <c r="K115" s="65"/>
-      <c r="L115" s="63"/>
-      <c r="M115" s="64"/>
-      <c r="N115" s="65"/>
-      <c r="O115" s="63"/>
-      <c r="P115" s="64"/>
-      <c r="Q115" s="64"/>
-      <c r="R115" s="65"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="68"/>
+      <c r="J115" s="68"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="67"/>
+      <c r="M115" s="68"/>
+      <c r="N115" s="69"/>
+      <c r="O115" s="67"/>
+      <c r="P115" s="68"/>
+      <c r="Q115" s="68"/>
+      <c r="R115" s="69"/>
       <c r="S115" s="11"/>
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
@@ -4203,22 +4276,22 @@
     <row r="116" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="63"/>
-      <c r="F116" s="64"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="63"/>
-      <c r="I116" s="64"/>
-      <c r="J116" s="64"/>
-      <c r="K116" s="65"/>
-      <c r="L116" s="63"/>
-      <c r="M116" s="64"/>
-      <c r="N116" s="65"/>
-      <c r="O116" s="63"/>
-      <c r="P116" s="64"/>
-      <c r="Q116" s="64"/>
-      <c r="R116" s="65"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="68"/>
+      <c r="J116" s="68"/>
+      <c r="K116" s="69"/>
+      <c r="L116" s="67"/>
+      <c r="M116" s="68"/>
+      <c r="N116" s="69"/>
+      <c r="O116" s="67"/>
+      <c r="P116" s="68"/>
+      <c r="Q116" s="68"/>
+      <c r="R116" s="69"/>
       <c r="S116" s="11"/>
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
@@ -4229,22 +4302,22 @@
     <row r="117" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="63"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="65"/>
-      <c r="H117" s="63"/>
-      <c r="I117" s="64"/>
-      <c r="J117" s="64"/>
-      <c r="K117" s="65"/>
-      <c r="L117" s="63"/>
-      <c r="M117" s="64"/>
-      <c r="N117" s="65"/>
-      <c r="O117" s="63"/>
-      <c r="P117" s="64"/>
-      <c r="Q117" s="64"/>
-      <c r="R117" s="65"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="68"/>
+      <c r="K117" s="69"/>
+      <c r="L117" s="67"/>
+      <c r="M117" s="68"/>
+      <c r="N117" s="69"/>
+      <c r="O117" s="67"/>
+      <c r="P117" s="68"/>
+      <c r="Q117" s="68"/>
+      <c r="R117" s="69"/>
       <c r="S117" s="11"/>
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
@@ -4255,22 +4328,22 @@
     <row r="118" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="66"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="63"/>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
-      <c r="K118" s="65"/>
-      <c r="L118" s="63"/>
-      <c r="M118" s="64"/>
-      <c r="N118" s="65"/>
-      <c r="O118" s="63"/>
-      <c r="P118" s="64"/>
-      <c r="Q118" s="64"/>
-      <c r="R118" s="65"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="68"/>
+      <c r="J118" s="68"/>
+      <c r="K118" s="69"/>
+      <c r="L118" s="67"/>
+      <c r="M118" s="68"/>
+      <c r="N118" s="69"/>
+      <c r="O118" s="67"/>
+      <c r="P118" s="68"/>
+      <c r="Q118" s="68"/>
+      <c r="R118" s="69"/>
       <c r="S118" s="11"/>
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
@@ -4281,22 +4354,22 @@
     <row r="119" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="63"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="65"/>
-      <c r="H119" s="63"/>
-      <c r="I119" s="64"/>
-      <c r="J119" s="64"/>
-      <c r="K119" s="65"/>
-      <c r="L119" s="63"/>
-      <c r="M119" s="64"/>
-      <c r="N119" s="65"/>
-      <c r="O119" s="63"/>
-      <c r="P119" s="64"/>
-      <c r="Q119" s="64"/>
-      <c r="R119" s="65"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="68"/>
+      <c r="J119" s="68"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="67"/>
+      <c r="M119" s="68"/>
+      <c r="N119" s="69"/>
+      <c r="O119" s="67"/>
+      <c r="P119" s="68"/>
+      <c r="Q119" s="68"/>
+      <c r="R119" s="69"/>
       <c r="S119" s="11"/>
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
@@ -4307,22 +4380,22 @@
     <row r="120" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="63"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="65"/>
-      <c r="H120" s="63"/>
-      <c r="I120" s="64"/>
-      <c r="J120" s="64"/>
-      <c r="K120" s="65"/>
-      <c r="L120" s="63"/>
-      <c r="M120" s="64"/>
-      <c r="N120" s="65"/>
-      <c r="O120" s="63"/>
-      <c r="P120" s="64"/>
-      <c r="Q120" s="64"/>
-      <c r="R120" s="65"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="67"/>
+      <c r="I120" s="68"/>
+      <c r="J120" s="68"/>
+      <c r="K120" s="69"/>
+      <c r="L120" s="67"/>
+      <c r="M120" s="68"/>
+      <c r="N120" s="69"/>
+      <c r="O120" s="67"/>
+      <c r="P120" s="68"/>
+      <c r="Q120" s="68"/>
+      <c r="R120" s="69"/>
       <c r="S120" s="11"/>
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
@@ -4333,22 +4406,22 @@
     <row r="121" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="63"/>
-      <c r="F121" s="64"/>
-      <c r="G121" s="65"/>
-      <c r="H121" s="63"/>
-      <c r="I121" s="64"/>
-      <c r="J121" s="64"/>
-      <c r="K121" s="65"/>
-      <c r="L121" s="63"/>
-      <c r="M121" s="64"/>
-      <c r="N121" s="65"/>
-      <c r="O121" s="63"/>
-      <c r="P121" s="64"/>
-      <c r="Q121" s="64"/>
-      <c r="R121" s="65"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="69"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="68"/>
+      <c r="J121" s="68"/>
+      <c r="K121" s="69"/>
+      <c r="L121" s="67"/>
+      <c r="M121" s="68"/>
+      <c r="N121" s="69"/>
+      <c r="O121" s="67"/>
+      <c r="P121" s="68"/>
+      <c r="Q121" s="68"/>
+      <c r="R121" s="69"/>
       <c r="S121" s="11"/>
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
@@ -4359,22 +4432,22 @@
     <row r="122" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
-      <c r="C122" s="66"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="63"/>
-      <c r="F122" s="64"/>
-      <c r="G122" s="65"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="65"/>
-      <c r="L122" s="63"/>
-      <c r="M122" s="64"/>
-      <c r="N122" s="65"/>
-      <c r="O122" s="63"/>
-      <c r="P122" s="64"/>
-      <c r="Q122" s="64"/>
-      <c r="R122" s="65"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="68"/>
+      <c r="J122" s="68"/>
+      <c r="K122" s="69"/>
+      <c r="L122" s="67"/>
+      <c r="M122" s="68"/>
+      <c r="N122" s="69"/>
+      <c r="O122" s="67"/>
+      <c r="P122" s="68"/>
+      <c r="Q122" s="68"/>
+      <c r="R122" s="69"/>
       <c r="S122" s="11"/>
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
@@ -4385,22 +4458,22 @@
     <row r="123" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="66"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="63"/>
-      <c r="F123" s="64"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="63"/>
-      <c r="I123" s="64"/>
-      <c r="J123" s="64"/>
-      <c r="K123" s="65"/>
-      <c r="L123" s="63"/>
-      <c r="M123" s="64"/>
-      <c r="N123" s="65"/>
-      <c r="O123" s="63"/>
-      <c r="P123" s="64"/>
-      <c r="Q123" s="64"/>
-      <c r="R123" s="65"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="69"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="68"/>
+      <c r="J123" s="68"/>
+      <c r="K123" s="69"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="68"/>
+      <c r="N123" s="69"/>
+      <c r="O123" s="67"/>
+      <c r="P123" s="68"/>
+      <c r="Q123" s="68"/>
+      <c r="R123" s="69"/>
       <c r="S123" s="11"/>
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
@@ -4411,22 +4484,22 @@
     <row r="124" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
-      <c r="C124" s="66"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="64"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="65"/>
-      <c r="L124" s="63"/>
-      <c r="M124" s="64"/>
-      <c r="N124" s="65"/>
-      <c r="O124" s="63"/>
-      <c r="P124" s="64"/>
-      <c r="Q124" s="64"/>
-      <c r="R124" s="65"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="68"/>
+      <c r="J124" s="68"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="67"/>
+      <c r="M124" s="68"/>
+      <c r="N124" s="69"/>
+      <c r="O124" s="67"/>
+      <c r="P124" s="68"/>
+      <c r="Q124" s="68"/>
+      <c r="R124" s="69"/>
       <c r="S124" s="11"/>
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
@@ -4437,22 +4510,22 @@
     <row r="125" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
-      <c r="C125" s="66"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="63"/>
-      <c r="F125" s="64"/>
-      <c r="G125" s="65"/>
-      <c r="H125" s="63"/>
-      <c r="I125" s="64"/>
-      <c r="J125" s="64"/>
-      <c r="K125" s="65"/>
-      <c r="L125" s="63"/>
-      <c r="M125" s="64"/>
-      <c r="N125" s="65"/>
-      <c r="O125" s="63"/>
-      <c r="P125" s="64"/>
-      <c r="Q125" s="64"/>
-      <c r="R125" s="65"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="69"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="69"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="68"/>
+      <c r="J125" s="68"/>
+      <c r="K125" s="69"/>
+      <c r="L125" s="67"/>
+      <c r="M125" s="68"/>
+      <c r="N125" s="69"/>
+      <c r="O125" s="67"/>
+      <c r="P125" s="68"/>
+      <c r="Q125" s="68"/>
+      <c r="R125" s="69"/>
       <c r="S125" s="11"/>
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
@@ -4463,22 +4536,22 @@
     <row r="126" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="63"/>
-      <c r="F126" s="64"/>
-      <c r="G126" s="65"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="65"/>
-      <c r="L126" s="63"/>
-      <c r="M126" s="64"/>
-      <c r="N126" s="65"/>
-      <c r="O126" s="63"/>
-      <c r="P126" s="64"/>
-      <c r="Q126" s="64"/>
-      <c r="R126" s="65"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="69"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="68"/>
+      <c r="J126" s="68"/>
+      <c r="K126" s="69"/>
+      <c r="L126" s="67"/>
+      <c r="M126" s="68"/>
+      <c r="N126" s="69"/>
+      <c r="O126" s="67"/>
+      <c r="P126" s="68"/>
+      <c r="Q126" s="68"/>
+      <c r="R126" s="69"/>
       <c r="S126" s="11"/>
       <c r="T126" s="11"/>
       <c r="U126" s="11"/>
@@ -4489,22 +4562,22 @@
     <row r="127" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="63"/>
-      <c r="F127" s="64"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="63"/>
-      <c r="I127" s="64"/>
-      <c r="J127" s="64"/>
-      <c r="K127" s="65"/>
-      <c r="L127" s="63"/>
-      <c r="M127" s="64"/>
-      <c r="N127" s="65"/>
-      <c r="O127" s="63"/>
-      <c r="P127" s="64"/>
-      <c r="Q127" s="64"/>
-      <c r="R127" s="65"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="69"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="69"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="68"/>
+      <c r="J127" s="68"/>
+      <c r="K127" s="69"/>
+      <c r="L127" s="67"/>
+      <c r="M127" s="68"/>
+      <c r="N127" s="69"/>
+      <c r="O127" s="67"/>
+      <c r="P127" s="68"/>
+      <c r="Q127" s="68"/>
+      <c r="R127" s="69"/>
       <c r="S127" s="11"/>
       <c r="T127" s="11"/>
       <c r="U127" s="11"/>
@@ -4515,22 +4588,22 @@
     <row r="128" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="64"/>
-      <c r="G128" s="65"/>
-      <c r="H128" s="63"/>
-      <c r="I128" s="64"/>
-      <c r="J128" s="64"/>
-      <c r="K128" s="65"/>
-      <c r="L128" s="63"/>
-      <c r="M128" s="64"/>
-      <c r="N128" s="65"/>
-      <c r="O128" s="63"/>
-      <c r="P128" s="64"/>
-      <c r="Q128" s="64"/>
-      <c r="R128" s="65"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="69"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="68"/>
+      <c r="J128" s="68"/>
+      <c r="K128" s="69"/>
+      <c r="L128" s="67"/>
+      <c r="M128" s="68"/>
+      <c r="N128" s="69"/>
+      <c r="O128" s="67"/>
+      <c r="P128" s="68"/>
+      <c r="Q128" s="68"/>
+      <c r="R128" s="69"/>
       <c r="S128" s="11"/>
       <c r="T128" s="11"/>
       <c r="U128" s="11"/>
@@ -4541,22 +4614,22 @@
     <row r="129" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="66"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="63"/>
-      <c r="F129" s="64"/>
-      <c r="G129" s="65"/>
-      <c r="H129" s="63"/>
-      <c r="I129" s="64"/>
-      <c r="J129" s="64"/>
-      <c r="K129" s="65"/>
-      <c r="L129" s="63"/>
-      <c r="M129" s="64"/>
-      <c r="N129" s="65"/>
-      <c r="O129" s="63"/>
-      <c r="P129" s="64"/>
-      <c r="Q129" s="64"/>
-      <c r="R129" s="65"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="69"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="68"/>
+      <c r="J129" s="68"/>
+      <c r="K129" s="69"/>
+      <c r="L129" s="67"/>
+      <c r="M129" s="68"/>
+      <c r="N129" s="69"/>
+      <c r="O129" s="67"/>
+      <c r="P129" s="68"/>
+      <c r="Q129" s="68"/>
+      <c r="R129" s="69"/>
       <c r="S129" s="11"/>
       <c r="T129" s="11"/>
       <c r="U129" s="11"/>
@@ -4567,22 +4640,22 @@
     <row r="130" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="63"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="65"/>
-      <c r="H130" s="63"/>
-      <c r="I130" s="64"/>
-      <c r="J130" s="64"/>
-      <c r="K130" s="65"/>
-      <c r="L130" s="63"/>
-      <c r="M130" s="64"/>
-      <c r="N130" s="65"/>
-      <c r="O130" s="63"/>
-      <c r="P130" s="64"/>
-      <c r="Q130" s="64"/>
-      <c r="R130" s="65"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="69"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="68"/>
+      <c r="J130" s="68"/>
+      <c r="K130" s="69"/>
+      <c r="L130" s="67"/>
+      <c r="M130" s="68"/>
+      <c r="N130" s="69"/>
+      <c r="O130" s="67"/>
+      <c r="P130" s="68"/>
+      <c r="Q130" s="68"/>
+      <c r="R130" s="69"/>
       <c r="S130" s="11"/>
       <c r="T130" s="11"/>
       <c r="U130" s="11"/>
@@ -4593,22 +4666,22 @@
     <row r="131" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
-      <c r="C131" s="66"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="63"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="63"/>
-      <c r="I131" s="64"/>
-      <c r="J131" s="64"/>
-      <c r="K131" s="65"/>
-      <c r="L131" s="63"/>
-      <c r="M131" s="64"/>
-      <c r="N131" s="65"/>
-      <c r="O131" s="63"/>
-      <c r="P131" s="64"/>
-      <c r="Q131" s="64"/>
-      <c r="R131" s="65"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="69"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="68"/>
+      <c r="J131" s="68"/>
+      <c r="K131" s="69"/>
+      <c r="L131" s="67"/>
+      <c r="M131" s="68"/>
+      <c r="N131" s="69"/>
+      <c r="O131" s="67"/>
+      <c r="P131" s="68"/>
+      <c r="Q131" s="68"/>
+      <c r="R131" s="69"/>
       <c r="S131" s="11"/>
       <c r="T131" s="11"/>
       <c r="U131" s="11"/>
@@ -4619,22 +4692,22 @@
     <row r="132" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="63"/>
-      <c r="F132" s="64"/>
-      <c r="G132" s="65"/>
-      <c r="H132" s="63"/>
-      <c r="I132" s="64"/>
-      <c r="J132" s="64"/>
-      <c r="K132" s="65"/>
-      <c r="L132" s="63"/>
-      <c r="M132" s="64"/>
-      <c r="N132" s="65"/>
-      <c r="O132" s="63"/>
-      <c r="P132" s="64"/>
-      <c r="Q132" s="64"/>
-      <c r="R132" s="65"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="69"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="69"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="68"/>
+      <c r="J132" s="68"/>
+      <c r="K132" s="69"/>
+      <c r="L132" s="67"/>
+      <c r="M132" s="68"/>
+      <c r="N132" s="69"/>
+      <c r="O132" s="67"/>
+      <c r="P132" s="68"/>
+      <c r="Q132" s="68"/>
+      <c r="R132" s="69"/>
       <c r="S132" s="11"/>
       <c r="T132" s="11"/>
       <c r="U132" s="11"/>
@@ -4645,22 +4718,22 @@
     <row r="133" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
-      <c r="C133" s="66"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="63"/>
-      <c r="F133" s="64"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="63"/>
-      <c r="I133" s="64"/>
-      <c r="J133" s="64"/>
-      <c r="K133" s="65"/>
-      <c r="L133" s="63"/>
-      <c r="M133" s="64"/>
-      <c r="N133" s="65"/>
-      <c r="O133" s="63"/>
-      <c r="P133" s="64"/>
-      <c r="Q133" s="64"/>
-      <c r="R133" s="65"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="69"/>
+      <c r="H133" s="67"/>
+      <c r="I133" s="68"/>
+      <c r="J133" s="68"/>
+      <c r="K133" s="69"/>
+      <c r="L133" s="67"/>
+      <c r="M133" s="68"/>
+      <c r="N133" s="69"/>
+      <c r="O133" s="67"/>
+      <c r="P133" s="68"/>
+      <c r="Q133" s="68"/>
+      <c r="R133" s="69"/>
       <c r="S133" s="11"/>
       <c r="T133" s="11"/>
       <c r="U133" s="11"/>
@@ -4671,22 +4744,22 @@
     <row r="134" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
-      <c r="C134" s="66"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="63"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="65"/>
-      <c r="H134" s="63"/>
-      <c r="I134" s="64"/>
-      <c r="J134" s="64"/>
-      <c r="K134" s="65"/>
-      <c r="L134" s="63"/>
-      <c r="M134" s="64"/>
-      <c r="N134" s="65"/>
-      <c r="O134" s="63"/>
-      <c r="P134" s="64"/>
-      <c r="Q134" s="64"/>
-      <c r="R134" s="65"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="69"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="68"/>
+      <c r="J134" s="68"/>
+      <c r="K134" s="69"/>
+      <c r="L134" s="67"/>
+      <c r="M134" s="68"/>
+      <c r="N134" s="69"/>
+      <c r="O134" s="67"/>
+      <c r="P134" s="68"/>
+      <c r="Q134" s="68"/>
+      <c r="R134" s="69"/>
       <c r="S134" s="11"/>
       <c r="T134" s="11"/>
       <c r="U134" s="11"/>
@@ -4697,22 +4770,22 @@
     <row r="135" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
-      <c r="C135" s="66"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="63"/>
-      <c r="F135" s="64"/>
-      <c r="G135" s="65"/>
-      <c r="H135" s="63"/>
-      <c r="I135" s="64"/>
-      <c r="J135" s="64"/>
-      <c r="K135" s="65"/>
-      <c r="L135" s="63"/>
-      <c r="M135" s="64"/>
-      <c r="N135" s="65"/>
-      <c r="O135" s="63"/>
-      <c r="P135" s="64"/>
-      <c r="Q135" s="64"/>
-      <c r="R135" s="65"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="69"/>
+      <c r="H135" s="67"/>
+      <c r="I135" s="68"/>
+      <c r="J135" s="68"/>
+      <c r="K135" s="69"/>
+      <c r="L135" s="67"/>
+      <c r="M135" s="68"/>
+      <c r="N135" s="69"/>
+      <c r="O135" s="67"/>
+      <c r="P135" s="68"/>
+      <c r="Q135" s="68"/>
+      <c r="R135" s="69"/>
       <c r="S135" s="11"/>
       <c r="T135" s="11"/>
       <c r="U135" s="11"/>
@@ -4723,22 +4796,22 @@
     <row r="136" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="63"/>
-      <c r="I136" s="64"/>
-      <c r="J136" s="64"/>
-      <c r="K136" s="65"/>
-      <c r="L136" s="63"/>
-      <c r="M136" s="64"/>
-      <c r="N136" s="65"/>
-      <c r="O136" s="63"/>
-      <c r="P136" s="64"/>
-      <c r="Q136" s="64"/>
-      <c r="R136" s="65"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="69"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="68"/>
+      <c r="J136" s="68"/>
+      <c r="K136" s="69"/>
+      <c r="L136" s="67"/>
+      <c r="M136" s="68"/>
+      <c r="N136" s="69"/>
+      <c r="O136" s="67"/>
+      <c r="P136" s="68"/>
+      <c r="Q136" s="68"/>
+      <c r="R136" s="69"/>
       <c r="S136" s="11"/>
       <c r="T136" s="11"/>
       <c r="U136" s="11"/>
@@ -4749,22 +4822,22 @@
     <row r="137" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
-      <c r="C137" s="66"/>
-      <c r="D137" s="65"/>
-      <c r="E137" s="63"/>
-      <c r="F137" s="64"/>
-      <c r="G137" s="65"/>
-      <c r="H137" s="63"/>
-      <c r="I137" s="64"/>
-      <c r="J137" s="64"/>
-      <c r="K137" s="65"/>
-      <c r="L137" s="63"/>
-      <c r="M137" s="64"/>
-      <c r="N137" s="65"/>
-      <c r="O137" s="63"/>
-      <c r="P137" s="64"/>
-      <c r="Q137" s="64"/>
-      <c r="R137" s="65"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="69"/>
+      <c r="H137" s="67"/>
+      <c r="I137" s="68"/>
+      <c r="J137" s="68"/>
+      <c r="K137" s="69"/>
+      <c r="L137" s="67"/>
+      <c r="M137" s="68"/>
+      <c r="N137" s="69"/>
+      <c r="O137" s="67"/>
+      <c r="P137" s="68"/>
+      <c r="Q137" s="68"/>
+      <c r="R137" s="69"/>
       <c r="S137" s="11"/>
       <c r="T137" s="11"/>
       <c r="U137" s="11"/>
@@ -4775,22 +4848,22 @@
     <row r="138" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
-      <c r="C138" s="66"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="63"/>
-      <c r="F138" s="64"/>
-      <c r="G138" s="65"/>
-      <c r="H138" s="63"/>
-      <c r="I138" s="64"/>
-      <c r="J138" s="64"/>
-      <c r="K138" s="65"/>
-      <c r="L138" s="63"/>
-      <c r="M138" s="64"/>
-      <c r="N138" s="65"/>
-      <c r="O138" s="63"/>
-      <c r="P138" s="64"/>
-      <c r="Q138" s="64"/>
-      <c r="R138" s="65"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="68"/>
+      <c r="G138" s="69"/>
+      <c r="H138" s="67"/>
+      <c r="I138" s="68"/>
+      <c r="J138" s="68"/>
+      <c r="K138" s="69"/>
+      <c r="L138" s="67"/>
+      <c r="M138" s="68"/>
+      <c r="N138" s="69"/>
+      <c r="O138" s="67"/>
+      <c r="P138" s="68"/>
+      <c r="Q138" s="68"/>
+      <c r="R138" s="69"/>
       <c r="S138" s="11"/>
       <c r="T138" s="11"/>
       <c r="U138" s="11"/>
@@ -4801,22 +4874,22 @@
     <row r="139" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
-      <c r="C139" s="66"/>
-      <c r="D139" s="65"/>
-      <c r="E139" s="63"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="63"/>
-      <c r="I139" s="64"/>
-      <c r="J139" s="64"/>
-      <c r="K139" s="65"/>
-      <c r="L139" s="63"/>
-      <c r="M139" s="64"/>
-      <c r="N139" s="65"/>
-      <c r="O139" s="63"/>
-      <c r="P139" s="64"/>
-      <c r="Q139" s="64"/>
-      <c r="R139" s="65"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="68"/>
+      <c r="G139" s="69"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="68"/>
+      <c r="J139" s="68"/>
+      <c r="K139" s="69"/>
+      <c r="L139" s="67"/>
+      <c r="M139" s="68"/>
+      <c r="N139" s="69"/>
+      <c r="O139" s="67"/>
+      <c r="P139" s="68"/>
+      <c r="Q139" s="68"/>
+      <c r="R139" s="69"/>
       <c r="S139" s="11"/>
       <c r="T139" s="11"/>
       <c r="U139" s="11"/>
@@ -4827,22 +4900,22 @@
     <row r="140" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
-      <c r="C140" s="66"/>
-      <c r="D140" s="65"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="64"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="63"/>
-      <c r="I140" s="64"/>
-      <c r="J140" s="64"/>
-      <c r="K140" s="65"/>
-      <c r="L140" s="63"/>
-      <c r="M140" s="64"/>
-      <c r="N140" s="65"/>
-      <c r="O140" s="63"/>
-      <c r="P140" s="64"/>
-      <c r="Q140" s="64"/>
-      <c r="R140" s="65"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="69"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="69"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="68"/>
+      <c r="J140" s="68"/>
+      <c r="K140" s="69"/>
+      <c r="L140" s="67"/>
+      <c r="M140" s="68"/>
+      <c r="N140" s="69"/>
+      <c r="O140" s="67"/>
+      <c r="P140" s="68"/>
+      <c r="Q140" s="68"/>
+      <c r="R140" s="69"/>
       <c r="S140" s="11"/>
       <c r="T140" s="11"/>
       <c r="U140" s="11"/>
@@ -4853,22 +4926,22 @@
     <row r="141" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
-      <c r="C141" s="66"/>
-      <c r="D141" s="65"/>
-      <c r="E141" s="63"/>
-      <c r="F141" s="64"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="63"/>
-      <c r="I141" s="64"/>
-      <c r="J141" s="64"/>
-      <c r="K141" s="65"/>
-      <c r="L141" s="63"/>
-      <c r="M141" s="64"/>
-      <c r="N141" s="65"/>
-      <c r="O141" s="63"/>
-      <c r="P141" s="64"/>
-      <c r="Q141" s="64"/>
-      <c r="R141" s="65"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="69"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="68"/>
+      <c r="J141" s="68"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="67"/>
+      <c r="M141" s="68"/>
+      <c r="N141" s="69"/>
+      <c r="O141" s="67"/>
+      <c r="P141" s="68"/>
+      <c r="Q141" s="68"/>
+      <c r="R141" s="69"/>
       <c r="S141" s="11"/>
       <c r="T141" s="11"/>
       <c r="U141" s="11"/>
@@ -4879,22 +4952,22 @@
     <row r="142" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
-      <c r="C142" s="66"/>
-      <c r="D142" s="65"/>
-      <c r="E142" s="63"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="63"/>
-      <c r="I142" s="64"/>
-      <c r="J142" s="64"/>
-      <c r="K142" s="65"/>
-      <c r="L142" s="63"/>
-      <c r="M142" s="64"/>
-      <c r="N142" s="65"/>
-      <c r="O142" s="63"/>
-      <c r="P142" s="64"/>
-      <c r="Q142" s="64"/>
-      <c r="R142" s="65"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="69"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="68"/>
+      <c r="J142" s="68"/>
+      <c r="K142" s="69"/>
+      <c r="L142" s="67"/>
+      <c r="M142" s="68"/>
+      <c r="N142" s="69"/>
+      <c r="O142" s="67"/>
+      <c r="P142" s="68"/>
+      <c r="Q142" s="68"/>
+      <c r="R142" s="69"/>
       <c r="S142" s="11"/>
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
@@ -4905,22 +4978,22 @@
     <row r="143" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="63"/>
-      <c r="I143" s="64"/>
-      <c r="J143" s="64"/>
-      <c r="K143" s="65"/>
-      <c r="L143" s="63"/>
-      <c r="M143" s="64"/>
-      <c r="N143" s="65"/>
-      <c r="O143" s="63"/>
-      <c r="P143" s="64"/>
-      <c r="Q143" s="64"/>
-      <c r="R143" s="65"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="69"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="68"/>
+      <c r="J143" s="68"/>
+      <c r="K143" s="69"/>
+      <c r="L143" s="67"/>
+      <c r="M143" s="68"/>
+      <c r="N143" s="69"/>
+      <c r="O143" s="67"/>
+      <c r="P143" s="68"/>
+      <c r="Q143" s="68"/>
+      <c r="R143" s="69"/>
       <c r="S143" s="11"/>
       <c r="T143" s="11"/>
       <c r="U143" s="11"/>
@@ -4931,22 +5004,22 @@
     <row r="144" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
-      <c r="C144" s="66"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="63"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="65"/>
-      <c r="H144" s="63"/>
-      <c r="I144" s="64"/>
-      <c r="J144" s="64"/>
-      <c r="K144" s="65"/>
-      <c r="L144" s="63"/>
-      <c r="M144" s="64"/>
-      <c r="N144" s="65"/>
-      <c r="O144" s="63"/>
-      <c r="P144" s="64"/>
-      <c r="Q144" s="64"/>
-      <c r="R144" s="65"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="69"/>
+      <c r="E144" s="67"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="69"/>
+      <c r="H144" s="67"/>
+      <c r="I144" s="68"/>
+      <c r="J144" s="68"/>
+      <c r="K144" s="69"/>
+      <c r="L144" s="67"/>
+      <c r="M144" s="68"/>
+      <c r="N144" s="69"/>
+      <c r="O144" s="67"/>
+      <c r="P144" s="68"/>
+      <c r="Q144" s="68"/>
+      <c r="R144" s="69"/>
       <c r="S144" s="11"/>
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
@@ -4957,22 +5030,22 @@
     <row r="145" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
-      <c r="C145" s="66"/>
-      <c r="D145" s="65"/>
-      <c r="E145" s="63"/>
-      <c r="F145" s="64"/>
-      <c r="G145" s="65"/>
-      <c r="H145" s="63"/>
-      <c r="I145" s="64"/>
-      <c r="J145" s="64"/>
-      <c r="K145" s="65"/>
-      <c r="L145" s="63"/>
-      <c r="M145" s="64"/>
-      <c r="N145" s="65"/>
-      <c r="O145" s="63"/>
-      <c r="P145" s="64"/>
-      <c r="Q145" s="64"/>
-      <c r="R145" s="65"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="69"/>
+      <c r="E145" s="67"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="69"/>
+      <c r="H145" s="67"/>
+      <c r="I145" s="68"/>
+      <c r="J145" s="68"/>
+      <c r="K145" s="69"/>
+      <c r="L145" s="67"/>
+      <c r="M145" s="68"/>
+      <c r="N145" s="69"/>
+      <c r="O145" s="67"/>
+      <c r="P145" s="68"/>
+      <c r="Q145" s="68"/>
+      <c r="R145" s="69"/>
       <c r="S145" s="11"/>
       <c r="T145" s="11"/>
       <c r="U145" s="11"/>
@@ -4983,22 +5056,22 @@
     <row r="146" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
-      <c r="C146" s="66"/>
-      <c r="D146" s="65"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="64"/>
-      <c r="G146" s="65"/>
-      <c r="H146" s="63"/>
-      <c r="I146" s="64"/>
-      <c r="J146" s="64"/>
-      <c r="K146" s="65"/>
-      <c r="L146" s="63"/>
-      <c r="M146" s="64"/>
-      <c r="N146" s="65"/>
-      <c r="O146" s="63"/>
-      <c r="P146" s="64"/>
-      <c r="Q146" s="64"/>
-      <c r="R146" s="65"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="68"/>
+      <c r="G146" s="69"/>
+      <c r="H146" s="67"/>
+      <c r="I146" s="68"/>
+      <c r="J146" s="68"/>
+      <c r="K146" s="69"/>
+      <c r="L146" s="67"/>
+      <c r="M146" s="68"/>
+      <c r="N146" s="69"/>
+      <c r="O146" s="67"/>
+      <c r="P146" s="68"/>
+      <c r="Q146" s="68"/>
+      <c r="R146" s="69"/>
       <c r="S146" s="11"/>
       <c r="T146" s="11"/>
       <c r="U146" s="11"/>
@@ -5009,22 +5082,22 @@
     <row r="147" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
-      <c r="C147" s="66"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="63"/>
-      <c r="F147" s="64"/>
-      <c r="G147" s="65"/>
-      <c r="H147" s="63"/>
-      <c r="I147" s="64"/>
-      <c r="J147" s="64"/>
-      <c r="K147" s="65"/>
-      <c r="L147" s="63"/>
-      <c r="M147" s="64"/>
-      <c r="N147" s="65"/>
-      <c r="O147" s="63"/>
-      <c r="P147" s="64"/>
-      <c r="Q147" s="64"/>
-      <c r="R147" s="65"/>
+      <c r="C147" s="70"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="69"/>
+      <c r="H147" s="67"/>
+      <c r="I147" s="68"/>
+      <c r="J147" s="68"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="67"/>
+      <c r="M147" s="68"/>
+      <c r="N147" s="69"/>
+      <c r="O147" s="67"/>
+      <c r="P147" s="68"/>
+      <c r="Q147" s="68"/>
+      <c r="R147" s="69"/>
       <c r="S147" s="11"/>
       <c r="T147" s="11"/>
       <c r="U147" s="11"/>
@@ -5035,22 +5108,22 @@
     <row r="148" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="63"/>
-      <c r="F148" s="64"/>
-      <c r="G148" s="65"/>
-      <c r="H148" s="63"/>
-      <c r="I148" s="64"/>
-      <c r="J148" s="64"/>
-      <c r="K148" s="65"/>
-      <c r="L148" s="63"/>
-      <c r="M148" s="64"/>
-      <c r="N148" s="65"/>
-      <c r="O148" s="63"/>
-      <c r="P148" s="64"/>
-      <c r="Q148" s="64"/>
-      <c r="R148" s="65"/>
+      <c r="C148" s="70"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="69"/>
+      <c r="H148" s="67"/>
+      <c r="I148" s="68"/>
+      <c r="J148" s="68"/>
+      <c r="K148" s="69"/>
+      <c r="L148" s="67"/>
+      <c r="M148" s="68"/>
+      <c r="N148" s="69"/>
+      <c r="O148" s="67"/>
+      <c r="P148" s="68"/>
+      <c r="Q148" s="68"/>
+      <c r="R148" s="69"/>
       <c r="S148" s="11"/>
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
@@ -5061,22 +5134,22 @@
     <row r="149" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
-      <c r="C149" s="66"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="63"/>
-      <c r="F149" s="64"/>
-      <c r="G149" s="65"/>
-      <c r="H149" s="63"/>
-      <c r="I149" s="64"/>
-      <c r="J149" s="64"/>
-      <c r="K149" s="65"/>
-      <c r="L149" s="63"/>
-      <c r="M149" s="64"/>
-      <c r="N149" s="65"/>
-      <c r="O149" s="63"/>
-      <c r="P149" s="64"/>
-      <c r="Q149" s="64"/>
-      <c r="R149" s="65"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="69"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="69"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="68"/>
+      <c r="J149" s="68"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="67"/>
+      <c r="M149" s="68"/>
+      <c r="N149" s="69"/>
+      <c r="O149" s="67"/>
+      <c r="P149" s="68"/>
+      <c r="Q149" s="68"/>
+      <c r="R149" s="69"/>
       <c r="S149" s="11"/>
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
@@ -26016,77 +26089,256 @@
     </row>
   </sheetData>
   <mergeCells count="345">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="O88:R88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="O93:R93"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="O94:R94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="O95:R95"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="O96:R96"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="O99:R99"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="O97:R97"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="O101:R101"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="O107:R107"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="O105:R105"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="O103:R103"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L126:N126"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:N124"/>
+    <mergeCell ref="O124:R124"/>
+    <mergeCell ref="L146:N146"/>
+    <mergeCell ref="O146:R146"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:N144"/>
+    <mergeCell ref="O144:R144"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:N145"/>
+    <mergeCell ref="O145:R145"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:N125"/>
+    <mergeCell ref="O125:R125"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="O130:R130"/>
+    <mergeCell ref="L133:N133"/>
+    <mergeCell ref="O133:R133"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:N131"/>
+    <mergeCell ref="O131:R131"/>
+    <mergeCell ref="L149:N149"/>
+    <mergeCell ref="O149:R149"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:N147"/>
+    <mergeCell ref="O147:R147"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:N148"/>
+    <mergeCell ref="O148:R148"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L134:N134"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:N135"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:N143"/>
+    <mergeCell ref="O143:R143"/>
+    <mergeCell ref="L139:N139"/>
+    <mergeCell ref="O139:R139"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:N137"/>
+    <mergeCell ref="O137:R137"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="E140:G140"/>
+    <mergeCell ref="E141:G141"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="E145:G145"/>
+    <mergeCell ref="E146:G146"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="E131:G131"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="E134:G134"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="E138:G138"/>
+    <mergeCell ref="E139:G139"/>
+    <mergeCell ref="E147:G147"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="L123:N123"/>
+    <mergeCell ref="O123:R123"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:N121"/>
+    <mergeCell ref="O121:R121"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:N122"/>
+    <mergeCell ref="O122:R122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L120:N120"/>
+    <mergeCell ref="O120:R120"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:N118"/>
+    <mergeCell ref="O118:R118"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:N119"/>
+    <mergeCell ref="O119:R119"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="O117:R117"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="O115:R115"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="O116:R116"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="O132:R132"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="L142:N142"/>
+    <mergeCell ref="O142:R142"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:N140"/>
+    <mergeCell ref="O140:R140"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:N141"/>
+    <mergeCell ref="O141:R141"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L138:N138"/>
+    <mergeCell ref="O138:R138"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L129:N129"/>
+    <mergeCell ref="O129:R129"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:N127"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:N128"/>
+    <mergeCell ref="O128:R128"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:N130"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="L136:N136"/>
+    <mergeCell ref="O136:R136"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="O89:R89"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="O92:R92"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="O90:R90"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="O91:R91"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E104:G104"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="L114:N114"/>
     <mergeCell ref="O114:R114"/>
@@ -26111,256 +26363,77 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:N106"/>
     <mergeCell ref="O106:R106"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="O128:R128"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="H130:K130"/>
-    <mergeCell ref="L130:N130"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="L136:N136"/>
-    <mergeCell ref="O136:R136"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="O89:R89"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="O92:R92"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="O90:R90"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="O91:R91"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H132:K132"/>
-    <mergeCell ref="L132:N132"/>
-    <mergeCell ref="O132:R132"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="L142:N142"/>
-    <mergeCell ref="O142:R142"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="L140:N140"/>
-    <mergeCell ref="O140:R140"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="L141:N141"/>
-    <mergeCell ref="O141:R141"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="L138:N138"/>
-    <mergeCell ref="O138:R138"/>
-    <mergeCell ref="H139:K139"/>
-    <mergeCell ref="L129:N129"/>
-    <mergeCell ref="O129:R129"/>
-    <mergeCell ref="H127:K127"/>
-    <mergeCell ref="L127:N127"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="H128:K128"/>
-    <mergeCell ref="L128:N128"/>
-    <mergeCell ref="L117:N117"/>
-    <mergeCell ref="O117:R117"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="O115:R115"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="L116:N116"/>
-    <mergeCell ref="O116:R116"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="L120:N120"/>
-    <mergeCell ref="O120:R120"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="L118:N118"/>
-    <mergeCell ref="O118:R118"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="L119:N119"/>
-    <mergeCell ref="O119:R119"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="L123:N123"/>
-    <mergeCell ref="O123:R123"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="L121:N121"/>
-    <mergeCell ref="O121:R121"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="L122:N122"/>
-    <mergeCell ref="O122:R122"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="E120:G120"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="E122:G122"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="E140:G140"/>
-    <mergeCell ref="E141:G141"/>
-    <mergeCell ref="E142:G142"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="E145:G145"/>
-    <mergeCell ref="E146:G146"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="E131:G131"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="E134:G134"/>
-    <mergeCell ref="E135:G135"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="E138:G138"/>
-    <mergeCell ref="E139:G139"/>
-    <mergeCell ref="E147:G147"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="L134:N134"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:N135"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="L143:N143"/>
-    <mergeCell ref="O143:R143"/>
-    <mergeCell ref="L139:N139"/>
-    <mergeCell ref="O139:R139"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:N137"/>
-    <mergeCell ref="O137:R137"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="L149:N149"/>
-    <mergeCell ref="O149:R149"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="L147:N147"/>
-    <mergeCell ref="O147:R147"/>
-    <mergeCell ref="H148:K148"/>
-    <mergeCell ref="L148:N148"/>
-    <mergeCell ref="O148:R148"/>
-    <mergeCell ref="H149:K149"/>
-    <mergeCell ref="L126:N126"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="L124:N124"/>
-    <mergeCell ref="O124:R124"/>
-    <mergeCell ref="L146:N146"/>
-    <mergeCell ref="O146:R146"/>
-    <mergeCell ref="H144:K144"/>
-    <mergeCell ref="L144:N144"/>
-    <mergeCell ref="O144:R144"/>
-    <mergeCell ref="H145:K145"/>
-    <mergeCell ref="L145:N145"/>
-    <mergeCell ref="O145:R145"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="H125:K125"/>
-    <mergeCell ref="L125:N125"/>
-    <mergeCell ref="O125:R125"/>
-    <mergeCell ref="H126:K126"/>
-    <mergeCell ref="O130:R130"/>
-    <mergeCell ref="L133:N133"/>
-    <mergeCell ref="O133:R133"/>
-    <mergeCell ref="H131:K131"/>
-    <mergeCell ref="L131:N131"/>
-    <mergeCell ref="O131:R131"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="O107:R107"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="O105:R105"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="O103:R103"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="O101:R101"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="O99:R99"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="O97:R97"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="O93:R93"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="O94:R94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="O95:R95"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="O96:R96"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="O88:R88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C4">
     <cfRule type="colorScale" priority="2">
@@ -26390,12 +26463,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c2318b8-3f44-4fc6-8641-c64fef1dffaa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cbcac0bd-a47d-4add-a9e8-6453ebbb4144" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26594,20 +26669,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c2318b8-3f44-4fc6-8641-c64fef1dffaa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cbcac0bd-a47d-4add-a9e8-6453ebbb4144" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE45D4B-B629-4110-ABAC-4B0F11E7BBFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75874065-9FDF-4780-9B87-C1C24E93EFA3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7c2318b8-3f44-4fc6-8641-c64fef1dffaa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cbcac0bd-a47d-4add-a9e8-6453ebbb4144"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26632,18 +26714,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75874065-9FDF-4780-9B87-C1C24E93EFA3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE45D4B-B629-4110-ABAC-4B0F11E7BBFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7c2318b8-3f44-4fc6-8641-c64fef1dffaa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cbcac0bd-a47d-4add-a9e8-6453ebbb4144"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>